--- a/src/main/resources/Demo.xlsx
+++ b/src/main/resources/Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palas\IdeaProjects\SeleniumBasicsNew\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57AEF8-43EC-48F6-95F9-4D03912F2EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08392D2B-C19F-444E-8B0E-19FA42E4D974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Palash</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Palak@1233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
@@ -377,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,21 +400,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -413,19 +422,30 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{9516B9F3-240D-49BE-8072-D138C0D26B11}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F0C6A964-FCED-4C0A-BC79-50D8DC721E3A}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9516B9F3-240D-49BE-8072-D138C0D26B11}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F0C6A964-FCED-4C0A-BC79-50D8DC721E3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
